--- a/ncp-gop-transect-2020-pkg30/ncp-gop-transect-2020-info.xlsx
+++ b/ncp-gop-transect-2020-pkg30/ncp-gop-transect-2020-info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-2020-pkg30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0D6B9F-680A-4714-BF8D-21E35FE42087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B706F209-2038-4D06-AE50-B02BFFFAEE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29790" yWindow="435" windowWidth="25995" windowHeight="8730" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30270" yWindow="3480" windowWidth="18000" windowHeight="13920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeadersGop" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="119">
   <si>
     <t>givenName</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>OCE-1655686</t>
-  </si>
-  <si>
-    <t>technician</t>
   </si>
   <si>
     <t>NES-LTER Information Manager</t>
@@ -487,9 +484,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -527,7 +524,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -633,7 +630,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -775,7 +772,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,202 +795,202 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1018,160 +1015,160 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
         <v>111</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1192,90 +1189,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1285,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1331,16 +1328,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -1349,27 +1346,27 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1386,25 +1383,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -1418,25 +1415,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -1450,19 +1447,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -1476,10 +1473,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
         <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1499,10 +1496,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1522,10 +1519,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1571,76 +1568,76 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
         <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1665,33 +1662,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="D2" s="6">
         <v>1.1574070000000001E-8</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-2020-pkg30/ncp-gop-transect-2020-info.xlsx
+++ b/ncp-gop-transect-2020-pkg30/ncp-gop-transect-2020-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-2020-pkg30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B706F209-2038-4D06-AE50-B02BFFFAEE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346B6072-4FF3-4B80-8385-368E00533AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="3480" windowWidth="18000" windowHeight="13920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeadersGop" sheetId="7" r:id="rId1"/>
@@ -383,10 +383,10 @@
     <t xml:space="preserve">Rachel </t>
   </si>
   <si>
-    <t>Ossolinski</t>
-  </si>
-  <si>
-    <t>Justin</t>
+    <t>S. Alejandra</t>
+  </si>
+  <si>
+    <t>Casillo Cieza</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1447,17 +1447,14 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
@@ -1473,14 +1470,17 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
@@ -1496,10 +1496,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
         <v>118</v>
-      </c>
-      <c r="C8" t="s">
-        <v>117</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1545,7 +1545,7 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/ncp-gop-transect-2020-pkg30/ncp-gop-transect-2020-info.xlsx
+++ b/ncp-gop-transect-2020-pkg30/ncp-gop-transect-2020-info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-2020-pkg30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346B6072-4FF3-4B80-8385-368E00533AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEEFFDC-147A-4602-B8FE-DC9980840CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="120">
   <si>
     <t>givenName</t>
   </si>
@@ -386,7 +386,10 @@
     <t>S. Alejandra</t>
   </si>
   <si>
-    <t>Casillo Cieza</t>
+    <t>sc1@wellesley.edu</t>
+  </si>
+  <si>
+    <t>Castillo Cieza</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1288,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1499,10 +1502,13 @@
         <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>

--- a/ncp-gop-transect-2020-pkg30/ncp-gop-transect-2020-info.xlsx
+++ b/ncp-gop-transect-2020-pkg30/ncp-gop-transect-2020-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-2020-pkg30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEEFFDC-147A-4602-B8FE-DC9980840CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35279031-E4E2-474C-86C3-0BE140CC384E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeadersGop" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="125">
   <si>
     <t>givenName</t>
   </si>
@@ -362,9 +362,6 @@
     <t>temperature</t>
   </si>
   <si>
-    <t>Underway thermosalinograph salinity in degrees Celsius. URI http://vocab.nerc.ac.uk/collection/P01/current/TEMPSZ01/</t>
-  </si>
-  <si>
     <t>celsius</t>
   </si>
   <si>
@@ -390,6 +387,24 @@
   </si>
   <si>
     <t>Castillo Cieza</t>
+  </si>
+  <si>
+    <t>Underway thermosalinograph temperature in degrees Celsius. URI http://vocab.nerc.ac.uk/collection/P01/current/TEMPSZ01/</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Morkeski</t>
+  </si>
+  <si>
+    <t>kmorkeski@whoi.edu</t>
+  </si>
+  <si>
+    <t>0000-0002-2903-5851</t>
+  </si>
+  <si>
+    <t>metadata Provider</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1021,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1111,21 +1126,21 @@
         <v>109</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
@@ -1285,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1349,7 +1364,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1499,16 +1514,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -1525,10 +1540,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1544,6 +1559,35 @@
       </c>
       <c r="J9" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
